--- a/Calculating Order Size for Deterministics Demand-Excel.xlsx
+++ b/Calculating Order Size for Deterministics Demand-Excel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb5502de639ff2fa/Documents/Excel Advance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{55846FAB-09BB-4D1B-A104-533AE41D822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{55846FAB-09BB-4D1B-A104-533AE41D822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9281281-1B93-4DF0-A5FA-658C2F17A0BD}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="12216" windowHeight="11664" xr2:uid="{05F5F4F0-2872-4422-A036-9AE28C0808B5}"/>
+    <workbookView xWindow="2088" yWindow="660" windowWidth="11880" windowHeight="11568" xr2:uid="{05F5F4F0-2872-4422-A036-9AE28C0808B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -569,6 +569,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,9 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2897,6 +2897,50 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152603</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80149AA8-F9FF-E5FC-3592-58B8DD0C2E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="6941820"/>
+          <a:ext cx="2339543" cy="746825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3571,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FAF014-B68B-4BE1-995B-47D05D8CE744}">
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3593,15 +3637,15 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3627,15 +3671,15 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3703,15 +3747,15 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3783,79 +3827,79 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="30"/>
@@ -3864,32 +3908,32 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="1"/>
       <c r="I28" s="16"/>
     </row>
@@ -4015,10 +4059,10 @@
       <c r="B45" s="5">
         <v>120</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="32"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="9">
         <f>B46</f>
         <v>1800</v>
@@ -4032,10 +4076,10 @@
       <c r="B46" s="6">
         <v>1800</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="32"/>
+      <c r="E46" s="33"/>
       <c r="F46">
         <f>F45/B48</f>
         <v>8.2158383625774913</v>
@@ -4049,10 +4093,10 @@
       <c r="B47" s="5">
         <v>9</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="32"/>
+      <c r="E47" s="33"/>
       <c r="F47">
         <f>365/F46</f>
         <v>44.426385219863477</v>
@@ -4704,7 +4748,7 @@
       <c r="I124" s="16"/>
     </row>
     <row r="125" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B125" s="30"/>
